--- a/DOKUMENT/Uji valid dan reli.xlsx
+++ b/DOKUMENT/Uji valid dan reli.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DB38A3-5812-4978-B9AD-27FBF1710C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571161F5-7FF9-44CF-9694-6F4A0ADDD2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Lembar1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>rHitung</t>
   </si>
@@ -193,6 +194,12 @@
   </si>
   <si>
     <t>varian total</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -200,9 +207,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -234,8 +241,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +266,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -312,11 +330,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -331,11 +364,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,6 +403,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352686</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gambar 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65346B19-0274-4DF9-135B-A848B23C7322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="1438275"/>
+          <a:ext cx="1867161" cy="1114581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,13 +654,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEF6905-84EA-4998-A96D-B168CF5C9440}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1445,8 +1546,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="11"/>
@@ -1460,203 +1561,209 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="15">
         <f t="shared" ref="B24:L24" si="1">CORREL(B2:B22,$M$2:$M$22)</f>
         <v>0.82640638638987718</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="15">
         <f t="shared" si="1"/>
         <v>0.64432393199547877</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="15">
         <f t="shared" si="1"/>
         <v>0.61131920365882231</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="15">
         <f t="shared" si="1"/>
         <v>0.56365155321390825</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="15">
         <f t="shared" si="1"/>
         <v>0.48886874712949885</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="15">
         <f t="shared" si="1"/>
         <v>0.65745650204816719</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="15">
         <f t="shared" si="1"/>
         <v>0.77375215704278422</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="15">
         <f t="shared" si="1"/>
         <v>0.62896130497169089</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="15">
         <f t="shared" si="1"/>
         <v>0.84261535469247029</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="15">
         <f t="shared" si="1"/>
         <v>0.52097256788936452</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="15">
         <f t="shared" si="1"/>
         <v>0.80163555951487064</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="15">
         <v>0.42299999999999999</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="15">
         <v>0.42299999999999999</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="15">
         <v>0.42299999999999999</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="15">
         <v>0.42299999999999999</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="15">
         <v>0.42299999999999999</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="15">
         <v>0.42299999999999999</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="15">
         <v>0.42299999999999999</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="15">
         <v>0.42299999999999999</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="15">
         <v>0.42299999999999999</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="15">
         <v>0.42299999999999999</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="15">
         <v>0.42299999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="11" t="str">
-        <f>IF(B24&gt;B25,"V","TV")</f>
-        <v>V</v>
-      </c>
-      <c r="C26" s="11" t="str">
-        <f t="shared" ref="C26:L26" si="2">IF(C24&gt;C25,"V","TV")</f>
-        <v>V</v>
-      </c>
-      <c r="D26" s="11" t="str">
+      <c r="B26" s="16" t="str">
+        <f>IF(B24&gt;B25,"Valid","Tidak Valid")</f>
+        <v>Valid</v>
+      </c>
+      <c r="C26" s="16" t="str">
+        <f t="shared" ref="C26:L26" si="2">IF(C24&gt;C25,"Valid","Tidak Valid")</f>
+        <v>Valid</v>
+      </c>
+      <c r="D26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>V</v>
-      </c>
-      <c r="E26" s="11" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="E26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>V</v>
-      </c>
-      <c r="F26" s="11" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="F26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>V</v>
-      </c>
-      <c r="G26" s="11" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="G26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>V</v>
-      </c>
-      <c r="H26" s="11" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="H26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>V</v>
-      </c>
-      <c r="I26" s="11" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="I26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>V</v>
-      </c>
-      <c r="J26" s="11" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="J26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>V</v>
-      </c>
-      <c r="K26" s="11" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="K26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>V</v>
-      </c>
-      <c r="L26" s="11" t="str">
+        <v>Valid</v>
+      </c>
+      <c r="L26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>V</v>
-      </c>
-      <c r="M26" s="12">
+        <v>Valid</v>
+      </c>
+      <c r="M26" s="13">
         <f>VAR(M2:M21)</f>
         <v>13.186842105263157</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11">
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="14">
         <f t="shared" ref="B27:L27" si="3">VAR(B2:B22)</f>
         <v>0.16842105263157836</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="14">
         <f t="shared" si="3"/>
         <v>0.19736842105263158</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="14">
         <f t="shared" si="3"/>
         <v>0.25263157894736904</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="14">
         <f t="shared" si="3"/>
         <v>0.26052631578947311</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="14">
         <f t="shared" si="3"/>
         <v>0.47105263157894678</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="14">
         <f t="shared" si="3"/>
         <v>0.25263157894736904</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="14">
         <f t="shared" si="3"/>
         <v>0.22105263157894678</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="14">
         <f t="shared" si="3"/>
         <v>0.26052631578947311</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="14">
         <f t="shared" si="3"/>
         <v>0.23947368421052692</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="14">
         <f t="shared" si="3"/>
         <v>0.22105263157894678</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="14">
         <f t="shared" si="3"/>
         <v>0.25263157894736904</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="13">
         <f>SUM(B27:L27)</f>
         <v>2.7973684210526302</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1697,7 +1804,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="14">
+      <c r="E31" s="10">
         <f>11/10*(1-M27/M26)</f>
         <v>0.8666533626022751</v>
       </c>
@@ -1747,4 +1854,304 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A1EEE4-30C6-40DA-9435-51B588E7E16D}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19">
+        <f>TINV(B2,A3)/SQRT(A3+(TINV(B2,A3))^2)</f>
+        <v>0.99691733373312796</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:C22" si="0">B3/SQRT(A3+B3^2)</f>
+        <v>0.70601437037078685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19">
+        <f t="shared" ref="B4:B22" si="1">TINV(B$2,A4)</f>
+        <v>4.3026527297494637</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19">
+        <f t="shared" si="1"/>
+        <v>3.1824463052837091</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.87833944815980525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19">
+        <f t="shared" si="1"/>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.81140135189950779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19">
+        <f t="shared" si="1"/>
+        <v>2.570581835636315</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="0"/>
+        <v>0.75449223446096447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19">
+        <f t="shared" si="1"/>
+        <v>2.4469118511449697</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.70673440073065374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19">
+        <f t="shared" si="1"/>
+        <v>2.3646242515927849</v>
+      </c>
+      <c r="C9" s="21">
+        <f t="shared" si="0"/>
+        <v>0.66638360533630914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19">
+        <f t="shared" si="1"/>
+        <v>2.3060041352041671</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="0"/>
+        <v>0.63189686471983397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19">
+        <f t="shared" si="1"/>
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="C11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.60206877743700837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19">
+        <f t="shared" si="1"/>
+        <v>2.2281388519862744</v>
+      </c>
+      <c r="C12" s="21">
+        <f t="shared" si="0"/>
+        <v>0.57598298644226398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19">
+        <f t="shared" si="1"/>
+        <v>2.2009851600916384</v>
+      </c>
+      <c r="C13" s="21">
+        <f t="shared" si="0"/>
+        <v>0.55294265949458932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19">
+        <f t="shared" si="1"/>
+        <v>2.1788128296672284</v>
+      </c>
+      <c r="C14" s="21">
+        <f t="shared" si="0"/>
+        <v>0.53241280468130958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19">
+        <f t="shared" si="1"/>
+        <v>2.1603686564627926</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" si="0"/>
+        <v>0.51397748425605627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19">
+        <f t="shared" si="1"/>
+        <v>2.1447866879178044</v>
+      </c>
+      <c r="C16" s="21">
+        <f t="shared" si="0"/>
+        <v>0.49730903545939303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19">
+        <f t="shared" si="1"/>
+        <v>2.1314495455597742</v>
+      </c>
+      <c r="C17" s="21">
+        <f t="shared" si="0"/>
+        <v>0.48214601690033215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19">
+        <f t="shared" si="1"/>
+        <v>2.119905299221255</v>
+      </c>
+      <c r="C18" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4682773054452069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19">
+        <f t="shared" si="1"/>
+        <v>2.109815577833317</v>
+      </c>
+      <c r="C19" s="21">
+        <f t="shared" si="0"/>
+        <v>0.45553050576304221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19">
+        <f t="shared" si="1"/>
+        <v>2.1009220402410378</v>
+      </c>
+      <c r="C20" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4437633993377868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>19</v>
+      </c>
+      <c r="B21" s="19">
+        <f t="shared" si="1"/>
+        <v>2.0930240544083096</v>
+      </c>
+      <c r="C21" s="21">
+        <f t="shared" si="0"/>
+        <v>0.43285755631652884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>20</v>
+      </c>
+      <c r="B22" s="19">
+        <f t="shared" si="1"/>
+        <v>2.0859634472658648</v>
+      </c>
+      <c r="C22" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4227135041660024</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/DOKUMENT/Uji valid dan reli.xlsx
+++ b/DOKUMENT/Uji valid dan reli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571161F5-7FF9-44CF-9694-6F4A0ADDD2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853118D5-2ED3-4D09-AA83-9BD4E12476A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="2" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +269,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,11 +367,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,17 +378,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -388,6 +398,18 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEF6905-84EA-4998-A96D-B168CF5C9440}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -666,1188 +688,1188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3</v>
-      </c>
-      <c r="M2">
+      <c r="B2" s="22">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22">
+        <v>4</v>
+      </c>
+      <c r="D2" s="22">
+        <v>4</v>
+      </c>
+      <c r="E2" s="22">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22">
+        <v>3</v>
+      </c>
+      <c r="G2" s="22">
+        <v>4</v>
+      </c>
+      <c r="H2" s="22">
+        <v>4</v>
+      </c>
+      <c r="I2" s="22">
+        <v>3</v>
+      </c>
+      <c r="J2" s="22">
+        <v>4</v>
+      </c>
+      <c r="K2" s="22">
+        <v>3</v>
+      </c>
+      <c r="L2" s="22">
+        <v>3</v>
+      </c>
+      <c r="M2" s="23">
         <f>SUM(B2:L2)</f>
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
-      <c r="L3" s="1">
-        <v>4</v>
-      </c>
-      <c r="M3">
+      <c r="B3" s="22">
+        <v>4</v>
+      </c>
+      <c r="C3" s="22">
+        <v>4</v>
+      </c>
+      <c r="D3" s="22">
+        <v>3</v>
+      </c>
+      <c r="E3" s="22">
+        <v>4</v>
+      </c>
+      <c r="F3" s="22">
+        <v>3</v>
+      </c>
+      <c r="G3" s="22">
+        <v>3</v>
+      </c>
+      <c r="H3" s="22">
+        <v>3</v>
+      </c>
+      <c r="I3" s="22">
+        <v>3</v>
+      </c>
+      <c r="J3" s="22">
+        <v>4</v>
+      </c>
+      <c r="K3" s="22">
+        <v>3</v>
+      </c>
+      <c r="L3" s="22">
+        <v>4</v>
+      </c>
+      <c r="M3" s="23">
         <f t="shared" ref="M3:M21" si="0">SUM(B3:L3)</f>
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4</v>
-      </c>
-      <c r="M4">
+      <c r="B4" s="22">
+        <v>4</v>
+      </c>
+      <c r="C4" s="22">
+        <v>4</v>
+      </c>
+      <c r="D4" s="22">
+        <v>4</v>
+      </c>
+      <c r="E4" s="22">
+        <v>3</v>
+      </c>
+      <c r="F4" s="22">
+        <v>4</v>
+      </c>
+      <c r="G4" s="22">
+        <v>4</v>
+      </c>
+      <c r="H4" s="22">
+        <v>4</v>
+      </c>
+      <c r="I4" s="22">
+        <v>4</v>
+      </c>
+      <c r="J4" s="22">
+        <v>4</v>
+      </c>
+      <c r="K4" s="22">
+        <v>4</v>
+      </c>
+      <c r="L4" s="22">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1">
-        <v>4</v>
-      </c>
-      <c r="M5">
+      <c r="B5" s="22">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4</v>
+      </c>
+      <c r="F5" s="22">
+        <v>4</v>
+      </c>
+      <c r="G5" s="22">
+        <v>4</v>
+      </c>
+      <c r="H5" s="22">
+        <v>4</v>
+      </c>
+      <c r="I5" s="22">
+        <v>4</v>
+      </c>
+      <c r="J5" s="22">
+        <v>4</v>
+      </c>
+      <c r="K5" s="22">
+        <v>3</v>
+      </c>
+      <c r="L5" s="22">
+        <v>4</v>
+      </c>
+      <c r="M5" s="23">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3</v>
-      </c>
-      <c r="M6">
+      <c r="B6" s="22">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22">
+        <v>3</v>
+      </c>
+      <c r="D6" s="22">
+        <v>3</v>
+      </c>
+      <c r="E6" s="22">
+        <v>3</v>
+      </c>
+      <c r="F6" s="22">
+        <v>4</v>
+      </c>
+      <c r="G6" s="22">
+        <v>3</v>
+      </c>
+      <c r="H6" s="22">
+        <v>3</v>
+      </c>
+      <c r="I6" s="22">
+        <v>3</v>
+      </c>
+      <c r="J6" s="22">
+        <v>3</v>
+      </c>
+      <c r="K6" s="22">
+        <v>3</v>
+      </c>
+      <c r="L6" s="22">
+        <v>3</v>
+      </c>
+      <c r="M6" s="23">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1">
-        <v>3</v>
-      </c>
-      <c r="M7">
+      <c r="B7" s="22">
+        <v>3</v>
+      </c>
+      <c r="C7" s="22">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22">
+        <v>3</v>
+      </c>
+      <c r="E7" s="22">
+        <v>3</v>
+      </c>
+      <c r="F7" s="22">
+        <v>3</v>
+      </c>
+      <c r="G7" s="22">
+        <v>3</v>
+      </c>
+      <c r="H7" s="22">
+        <v>3</v>
+      </c>
+      <c r="I7" s="22">
+        <v>3</v>
+      </c>
+      <c r="J7" s="22">
+        <v>3</v>
+      </c>
+      <c r="K7" s="22">
+        <v>3</v>
+      </c>
+      <c r="L7" s="22">
+        <v>3</v>
+      </c>
+      <c r="M7" s="23">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1">
-        <v>4</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4</v>
-      </c>
-      <c r="M8">
+      <c r="B8" s="22">
+        <v>4</v>
+      </c>
+      <c r="C8" s="22">
+        <v>3</v>
+      </c>
+      <c r="D8" s="22">
+        <v>4</v>
+      </c>
+      <c r="E8" s="22">
+        <v>4</v>
+      </c>
+      <c r="F8" s="22">
+        <v>4</v>
+      </c>
+      <c r="G8" s="22">
+        <v>4</v>
+      </c>
+      <c r="H8" s="22">
+        <v>4</v>
+      </c>
+      <c r="I8" s="22">
+        <v>4</v>
+      </c>
+      <c r="J8" s="22">
+        <v>4</v>
+      </c>
+      <c r="K8" s="22">
+        <v>4</v>
+      </c>
+      <c r="L8" s="22">
+        <v>4</v>
+      </c>
+      <c r="M8" s="23">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="B9" s="22">
+        <v>4</v>
+      </c>
+      <c r="C9" s="22">
+        <v>4</v>
+      </c>
+      <c r="D9" s="22">
+        <v>3</v>
+      </c>
+      <c r="E9" s="22">
+        <v>3</v>
+      </c>
+      <c r="F9" s="22">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3</v>
-      </c>
-      <c r="L9" s="1">
-        <v>3</v>
-      </c>
-      <c r="M9">
+      <c r="G9" s="22">
+        <v>4</v>
+      </c>
+      <c r="H9" s="22">
+        <v>4</v>
+      </c>
+      <c r="I9" s="22">
+        <v>4</v>
+      </c>
+      <c r="J9" s="22">
+        <v>3</v>
+      </c>
+      <c r="K9" s="22">
+        <v>3</v>
+      </c>
+      <c r="L9" s="22">
+        <v>3</v>
+      </c>
+      <c r="M9" s="23">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
-      <c r="J10" s="1">
-        <v>4</v>
-      </c>
-      <c r="K10" s="1">
-        <v>4</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4</v>
-      </c>
-      <c r="M10">
+      <c r="B10" s="22">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22">
+        <v>4</v>
+      </c>
+      <c r="D10" s="22">
+        <v>4</v>
+      </c>
+      <c r="E10" s="22">
+        <v>4</v>
+      </c>
+      <c r="F10" s="22">
+        <v>4</v>
+      </c>
+      <c r="G10" s="22">
+        <v>4</v>
+      </c>
+      <c r="H10" s="22">
+        <v>4</v>
+      </c>
+      <c r="I10" s="22">
+        <v>4</v>
+      </c>
+      <c r="J10" s="22">
+        <v>4</v>
+      </c>
+      <c r="K10" s="22">
+        <v>4</v>
+      </c>
+      <c r="L10" s="22">
+        <v>4</v>
+      </c>
+      <c r="M10" s="23">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3</v>
-      </c>
-      <c r="L11" s="1">
-        <v>4</v>
-      </c>
-      <c r="M11">
+      <c r="B11" s="22">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22">
+        <v>4</v>
+      </c>
+      <c r="D11" s="22">
+        <v>4</v>
+      </c>
+      <c r="E11" s="22">
+        <v>3</v>
+      </c>
+      <c r="F11" s="22">
+        <v>4</v>
+      </c>
+      <c r="G11" s="22">
+        <v>3</v>
+      </c>
+      <c r="H11" s="22">
+        <v>4</v>
+      </c>
+      <c r="I11" s="22">
+        <v>3</v>
+      </c>
+      <c r="J11" s="22">
+        <v>4</v>
+      </c>
+      <c r="K11" s="22">
+        <v>3</v>
+      </c>
+      <c r="L11" s="22">
+        <v>4</v>
+      </c>
+      <c r="M11" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1">
-        <v>4</v>
-      </c>
-      <c r="K12" s="1">
-        <v>3</v>
-      </c>
-      <c r="L12" s="1">
-        <v>4</v>
-      </c>
-      <c r="M12">
+      <c r="B12" s="22">
+        <v>4</v>
+      </c>
+      <c r="C12" s="22">
+        <v>4</v>
+      </c>
+      <c r="D12" s="22">
+        <v>4</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3</v>
+      </c>
+      <c r="F12" s="22">
+        <v>4</v>
+      </c>
+      <c r="G12" s="22">
+        <v>4</v>
+      </c>
+      <c r="H12" s="22">
+        <v>4</v>
+      </c>
+      <c r="I12" s="22">
+        <v>4</v>
+      </c>
+      <c r="J12" s="22">
+        <v>4</v>
+      </c>
+      <c r="K12" s="22">
+        <v>3</v>
+      </c>
+      <c r="L12" s="22">
+        <v>4</v>
+      </c>
+      <c r="M12" s="23">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4</v>
-      </c>
-      <c r="K13" s="1">
-        <v>4</v>
-      </c>
-      <c r="L13" s="1">
-        <v>4</v>
-      </c>
-      <c r="M13">
+      <c r="B13" s="22">
+        <v>4</v>
+      </c>
+      <c r="C13" s="22">
+        <v>4</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3</v>
+      </c>
+      <c r="E13" s="22">
+        <v>4</v>
+      </c>
+      <c r="F13" s="22">
+        <v>4</v>
+      </c>
+      <c r="G13" s="22">
+        <v>4</v>
+      </c>
+      <c r="H13" s="22">
+        <v>4</v>
+      </c>
+      <c r="I13" s="22">
+        <v>4</v>
+      </c>
+      <c r="J13" s="22">
+        <v>4</v>
+      </c>
+      <c r="K13" s="22">
+        <v>4</v>
+      </c>
+      <c r="L13" s="22">
+        <v>4</v>
+      </c>
+      <c r="M13" s="23">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3</v>
-      </c>
-      <c r="L14" s="1">
-        <v>3</v>
-      </c>
-      <c r="M14">
+      <c r="B14" s="22">
+        <v>3</v>
+      </c>
+      <c r="C14" s="22">
+        <v>3</v>
+      </c>
+      <c r="D14" s="22">
+        <v>3</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3</v>
+      </c>
+      <c r="F14" s="22">
+        <v>3</v>
+      </c>
+      <c r="G14" s="22">
+        <v>3</v>
+      </c>
+      <c r="H14" s="22">
+        <v>3</v>
+      </c>
+      <c r="I14" s="22">
+        <v>3</v>
+      </c>
+      <c r="J14" s="22">
+        <v>3</v>
+      </c>
+      <c r="K14" s="22">
+        <v>3</v>
+      </c>
+      <c r="L14" s="22">
+        <v>3</v>
+      </c>
+      <c r="M14" s="23">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1">
-        <v>4</v>
-      </c>
-      <c r="K15" s="1">
-        <v>4</v>
-      </c>
-      <c r="L15" s="1">
-        <v>4</v>
-      </c>
-      <c r="M15">
+      <c r="B15" s="22">
+        <v>4</v>
+      </c>
+      <c r="C15" s="22">
+        <v>4</v>
+      </c>
+      <c r="D15" s="22">
+        <v>4</v>
+      </c>
+      <c r="E15" s="22">
+        <v>3</v>
+      </c>
+      <c r="F15" s="22">
+        <v>4</v>
+      </c>
+      <c r="G15" s="22">
+        <v>3</v>
+      </c>
+      <c r="H15" s="22">
+        <v>4</v>
+      </c>
+      <c r="I15" s="22">
+        <v>3</v>
+      </c>
+      <c r="J15" s="22">
+        <v>4</v>
+      </c>
+      <c r="K15" s="22">
+        <v>4</v>
+      </c>
+      <c r="L15" s="22">
+        <v>4</v>
+      </c>
+      <c r="M15" s="23">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1">
-        <v>4</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4</v>
-      </c>
-      <c r="K16" s="1">
-        <v>3</v>
-      </c>
-      <c r="L16" s="1">
-        <v>4</v>
-      </c>
-      <c r="M16">
+      <c r="B16" s="22">
+        <v>4</v>
+      </c>
+      <c r="C16" s="22">
+        <v>4</v>
+      </c>
+      <c r="D16" s="22">
+        <v>3</v>
+      </c>
+      <c r="E16" s="22">
+        <v>4</v>
+      </c>
+      <c r="F16" s="22">
+        <v>4</v>
+      </c>
+      <c r="G16" s="22">
+        <v>4</v>
+      </c>
+      <c r="H16" s="22">
+        <v>4</v>
+      </c>
+      <c r="I16" s="22">
+        <v>4</v>
+      </c>
+      <c r="J16" s="22">
+        <v>4</v>
+      </c>
+      <c r="K16" s="22">
+        <v>3</v>
+      </c>
+      <c r="L16" s="22">
+        <v>4</v>
+      </c>
+      <c r="M16" s="23">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3</v>
-      </c>
-      <c r="K17" s="1">
-        <v>3</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3</v>
-      </c>
-      <c r="M17">
+      <c r="B17" s="22">
+        <v>3</v>
+      </c>
+      <c r="C17" s="22">
+        <v>3</v>
+      </c>
+      <c r="D17" s="22">
+        <v>3</v>
+      </c>
+      <c r="E17" s="22">
+        <v>3</v>
+      </c>
+      <c r="F17" s="22">
+        <v>4</v>
+      </c>
+      <c r="G17" s="22">
+        <v>3</v>
+      </c>
+      <c r="H17" s="22">
+        <v>3</v>
+      </c>
+      <c r="I17" s="22">
+        <v>3</v>
+      </c>
+      <c r="J17" s="22">
+        <v>3</v>
+      </c>
+      <c r="K17" s="22">
+        <v>3</v>
+      </c>
+      <c r="L17" s="22">
+        <v>3</v>
+      </c>
+      <c r="M17" s="23">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="B18" s="22">
+        <v>4</v>
+      </c>
+      <c r="C18" s="22">
+        <v>4</v>
+      </c>
+      <c r="D18" s="22">
+        <v>3</v>
+      </c>
+      <c r="E18" s="22">
+        <v>3</v>
+      </c>
+      <c r="F18" s="22">
         <v>2</v>
       </c>
-      <c r="G18" s="1">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1">
-        <v>4</v>
-      </c>
-      <c r="I18" s="1">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>3</v>
-      </c>
-      <c r="K18" s="1">
-        <v>3</v>
-      </c>
-      <c r="L18" s="1">
-        <v>3</v>
-      </c>
-      <c r="M18">
+      <c r="G18" s="22">
+        <v>4</v>
+      </c>
+      <c r="H18" s="22">
+        <v>4</v>
+      </c>
+      <c r="I18" s="22">
+        <v>4</v>
+      </c>
+      <c r="J18" s="22">
+        <v>3</v>
+      </c>
+      <c r="K18" s="22">
+        <v>3</v>
+      </c>
+      <c r="L18" s="22">
+        <v>3</v>
+      </c>
+      <c r="M18" s="23">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4</v>
-      </c>
-      <c r="I19" s="1">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1">
-        <v>3</v>
-      </c>
-      <c r="L19" s="1">
-        <v>4</v>
-      </c>
-      <c r="M19">
+      <c r="B19" s="22">
+        <v>4</v>
+      </c>
+      <c r="C19" s="22">
+        <v>4</v>
+      </c>
+      <c r="D19" s="22">
+        <v>4</v>
+      </c>
+      <c r="E19" s="22">
+        <v>4</v>
+      </c>
+      <c r="F19" s="22">
+        <v>4</v>
+      </c>
+      <c r="G19" s="22">
+        <v>4</v>
+      </c>
+      <c r="H19" s="22">
+        <v>4</v>
+      </c>
+      <c r="I19" s="22">
+        <v>4</v>
+      </c>
+      <c r="J19" s="22">
+        <v>4</v>
+      </c>
+      <c r="K19" s="22">
+        <v>3</v>
+      </c>
+      <c r="L19" s="22">
+        <v>4</v>
+      </c>
+      <c r="M19" s="23">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3</v>
-      </c>
-      <c r="H20" s="1">
-        <v>3</v>
-      </c>
-      <c r="I20" s="1">
-        <v>3</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
-      <c r="K20" s="1">
-        <v>4</v>
-      </c>
-      <c r="L20" s="1">
-        <v>4</v>
-      </c>
-      <c r="M20">
+      <c r="B20" s="22">
+        <v>4</v>
+      </c>
+      <c r="C20" s="22">
+        <v>4</v>
+      </c>
+      <c r="D20" s="22">
+        <v>3</v>
+      </c>
+      <c r="E20" s="22">
+        <v>4</v>
+      </c>
+      <c r="F20" s="22">
+        <v>3</v>
+      </c>
+      <c r="G20" s="22">
+        <v>3</v>
+      </c>
+      <c r="H20" s="22">
+        <v>3</v>
+      </c>
+      <c r="I20" s="22">
+        <v>3</v>
+      </c>
+      <c r="J20" s="22">
+        <v>4</v>
+      </c>
+      <c r="K20" s="22">
+        <v>4</v>
+      </c>
+      <c r="L20" s="22">
+        <v>4</v>
+      </c>
+      <c r="M20" s="23">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3</v>
-      </c>
-      <c r="K21" s="1">
-        <v>3</v>
-      </c>
-      <c r="L21" s="1">
-        <v>3</v>
-      </c>
-      <c r="M21">
+      <c r="B21" s="22">
+        <v>4</v>
+      </c>
+      <c r="C21" s="22">
+        <v>4</v>
+      </c>
+      <c r="D21" s="22">
+        <v>3</v>
+      </c>
+      <c r="E21" s="22">
+        <v>3</v>
+      </c>
+      <c r="F21" s="22">
+        <v>4</v>
+      </c>
+      <c r="G21" s="22">
+        <v>4</v>
+      </c>
+      <c r="H21" s="22">
+        <v>4</v>
+      </c>
+      <c r="I21" s="22">
+        <v>4</v>
+      </c>
+      <c r="J21" s="22">
+        <v>3</v>
+      </c>
+      <c r="K21" s="22">
+        <v>3</v>
+      </c>
+      <c r="L21" s="22">
+        <v>3</v>
+      </c>
+      <c r="M21" s="23">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="12">
         <f t="shared" ref="B24:L24" si="1">CORREL(B2:B22,$M$2:$M$22)</f>
         <v>0.82640638638987718</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <f t="shared" si="1"/>
         <v>0.64432393199547877</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="12">
         <f t="shared" si="1"/>
         <v>0.61131920365882231</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <f t="shared" si="1"/>
         <v>0.56365155321390825</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="12">
         <f t="shared" si="1"/>
         <v>0.48886874712949885</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="12">
         <f t="shared" si="1"/>
         <v>0.65745650204816719</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="12">
         <f t="shared" si="1"/>
         <v>0.77375215704278422</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="12">
         <f t="shared" si="1"/>
         <v>0.62896130497169089</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="12">
         <f t="shared" si="1"/>
         <v>0.84261535469247029</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="12">
         <f t="shared" si="1"/>
         <v>0.52097256788936452</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="12">
         <f t="shared" si="1"/>
         <v>0.80163555951487064</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="12">
         <v>0.42299999999999999</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>0.42299999999999999</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="12">
         <v>0.42299999999999999</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>0.42299999999999999</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="12">
         <v>0.42299999999999999</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="12">
         <v>0.42299999999999999</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="12">
         <v>0.42299999999999999</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="12">
         <v>0.42299999999999999</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="12">
         <v>0.42299999999999999</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="12">
         <v>0.42299999999999999</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="12">
         <v>0.42299999999999999</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="16" t="str">
+      <c r="B26" s="13" t="str">
         <f>IF(B24&gt;B25,"Valid","Tidak Valid")</f>
         <v>Valid</v>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="13" t="str">
         <f t="shared" ref="C26:L26" si="2">IF(C24&gt;C25,"Valid","Tidak Valid")</f>
         <v>Valid</v>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="H26" s="16" t="str">
+      <c r="H26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="I26" s="16" t="str">
+      <c r="I26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="J26" s="16" t="str">
+      <c r="J26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K26" s="16" t="str">
+      <c r="K26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="L26" s="16" t="str">
+      <c r="L26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="24">
         <f>VAR(M2:M21)</f>
         <v>13.186842105263157</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="N26" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="14">
+      <c r="A27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11">
         <f t="shared" ref="B27:L27" si="3">VAR(B2:B22)</f>
         <v>0.16842105263157836</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <f t="shared" si="3"/>
         <v>0.19736842105263158</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="11">
         <f t="shared" si="3"/>
         <v>0.25263157894736904</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <f t="shared" si="3"/>
         <v>0.26052631578947311</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="11">
         <f t="shared" si="3"/>
         <v>0.47105263157894678</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="11">
         <f t="shared" si="3"/>
         <v>0.25263157894736904</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="11">
         <f t="shared" si="3"/>
         <v>0.22105263157894678</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="11">
         <f t="shared" si="3"/>
         <v>0.26052631578947311</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="11">
         <f t="shared" si="3"/>
         <v>0.23947368421052692</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="11">
         <f t="shared" si="3"/>
         <v>0.22105263157894678</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="11">
         <f t="shared" si="3"/>
         <v>0.25263157894736904</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="24">
         <f>SUM(B27:L27)</f>
         <v>2.7973684210526302</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="10">
+      <c r="D31" s="6"/>
+      <c r="E31" s="8">
         <f>11/10*(1-M27/M26)</f>
         <v>0.8666533626022751</v>
       </c>
-      <c r="F31" s="8" t="str">
+      <c r="F31" s="19" t="str">
         <f>IF(AND(E31&gt;0.8,E31&lt;=1), "Reliabilias Sangat Tinggi", IF(AND(E31&gt;0.6,E31&lt;=0.8),"Relibilitas Tinggi",IF(AND(E31&gt;0.4,E31&lt;=0.6),"Relibilitas Sedang",IF(AND(E31&gt;0.2,E31&lt;=0.4),"Relibilitas Rendah",IF(AND(E31&gt;0,E31&lt;=0.2),"Tidak Reliabel","")))))</f>
         <v>Reliabilias Sangat Tinggi</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1860,288 +1882,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A1EEE4-30C6-40DA-9435-51B588E7E16D}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18">
+      <c r="A2" s="18"/>
+      <c r="B2" s="14">
         <v>0.05</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="15">
         <f>TINV(B2,A3)/SQRT(A3+(TINV(B2,A3))^2)</f>
         <v>0.99691733373312796</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="17">
         <f t="shared" ref="C3:C22" si="0">B3/SQRT(A3+B3^2)</f>
         <v>0.70601437037078685</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <f t="shared" ref="B4:B22" si="1">TINV(B$2,A4)</f>
         <v>4.3026527297494637</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
         <f t="shared" si="1"/>
         <v>3.1824463052837091</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
         <v>0.87833944815980525</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>4</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15">
         <f t="shared" si="1"/>
         <v>2.7764451051977934</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
         <v>0.81140135189950779</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <f t="shared" si="1"/>
         <v>2.570581835636315</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
         <v>0.75449223446096447</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <f t="shared" si="1"/>
         <v>2.4469118511449697</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
         <v>0.70673440073065374</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <f t="shared" si="1"/>
         <v>2.3646242515927849</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>0.66638360533630914</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <f t="shared" si="1"/>
         <v>2.3060041352041671</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
         <v>0.63189686471983397</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <f t="shared" si="1"/>
         <v>2.2621571627982053</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
         <v>0.60206877743700837</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>2.2281388519862744</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
         <v>0.57598298644226398</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <f t="shared" si="1"/>
         <v>2.2009851600916384</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
         <v>0.55294265949458932</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>2.1788128296672284</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
         <v>0.53241280468130958</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="15">
         <f t="shared" si="1"/>
         <v>2.1603686564627926</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
         <v>0.51397748425605627</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <f t="shared" si="1"/>
         <v>2.1447866879178044</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
         <v>0.49730903545939303</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="15">
         <f t="shared" si="1"/>
         <v>2.1314495455597742</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <f t="shared" si="0"/>
         <v>0.48214601690033215</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="15">
         <f t="shared" si="1"/>
         <v>2.119905299221255</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <f t="shared" si="0"/>
         <v>0.4682773054452069</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="15">
         <f t="shared" si="1"/>
         <v>2.109815577833317</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="17">
         <f t="shared" si="0"/>
         <v>0.45553050576304221</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="15">
         <f t="shared" si="1"/>
         <v>2.1009220402410378</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="17">
         <f t="shared" si="0"/>
         <v>0.4437633993377868</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="15">
         <f t="shared" si="1"/>
         <v>2.0930240544083096</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="17">
         <f t="shared" si="0"/>
         <v>0.43285755631652884</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="15">
         <f t="shared" si="1"/>
         <v>2.0859634472658648</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="17">
         <f t="shared" si="0"/>
         <v>0.4227135041660024</v>
       </c>
